--- a/Input/Now_Health/benefits.xlsx
+++ b/Input/Now_Health/benefits.xlsx
@@ -283,10 +283,10 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-31</t>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-31</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
@@ -575,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:BH14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AV12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BC14" activeCellId="0" sqref="BC14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AV1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
